--- a/data/2023-24/version0/grecia_superliga_23-24.xlsx
+++ b/data/2023-24/version0/grecia_superliga_23-24.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,471 +486,411 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03.09.2023 13:45</t>
+          <t>23.09.2023 12:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giannina</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Lamia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03.09.2023 13:30</t>
+          <t>23.09.2023 09:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Volos</t>
+          <t>OFI Creta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AEK</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03.09.2023 12:00</t>
+          <t>18.09.2023 10:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Asteras T.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Volos</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03.09.2023 12:00</t>
+          <t>17.09.2023 13:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OFI Creta</t>
+          <t>AEK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PAOK</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Olympiacos</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03.09.2023 12:00</t>
+          <t>17.09.2023 12:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Olympiacos</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lamia</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02.09.2023 13:00</t>
+          <t>17.09.2023 10:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Kifisias</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Panserraikos</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Panetolikos</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01.09.2023 13:00</t>
+          <t>17.09.2023 07:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kifisias</t>
+          <t>Asteras T.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atromitos</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Giannina</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>27.08.2023 13:30</t>
+          <t>16.09.2023 12:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Olympiacos</t>
+          <t>Panetolikos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atromitos</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27.08.2023 13:00</t>
+          <t>16.09.2023 09:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Lamia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kifisias</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>OFI Creta</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>27.08.2023 11:15</t>
+          <t>03.09.2023 13:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lamia</t>
+          <t>Giannina</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aris</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>26.08.2023 13:30</t>
+          <t>03.09.2023 13:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Volos</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>AEK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Panserraikos</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26.08.2023 12:00</t>
+          <t>03.09.2023 12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Asteras T.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>OFI Creta</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26.08.2023 12:00</t>
+          <t>03.09.2023 12:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>OFI Creta</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Volos</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25.08.2023 13:00</t>
+          <t>03.09.2023 12:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Panetolikos</t>
+          <t>Olympiacos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Giannina</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20.08.2023 14:00</t>
+          <t>02.09.2023 13:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Olympiacos</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Panetolikos</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20.08.2023 12:00</t>
+          <t>01.09.2023 13:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Kifisias</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Asteras T.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20.08.2023 11:30</t>
+          <t>27.08.2023 13:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OFI Creta</t>
+          <t>Olympiacos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aris</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20.08.2023 11:00</t>
+          <t>27.08.2023 13:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Giannina</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -958,42 +898,241 @@
           <t>Kifisias</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>27.08.2023 11:15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>26.08.2023 13:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AEK</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>26.08.2023 12:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Asteras T.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>OFI Creta</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>26.08.2023 12:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Volos</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>25.08.2023 13:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Panetolikos</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Giannina</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20.08.2023 14:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Olympiacos</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20.08.2023 12:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Asteras T.</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20.08.2023 11:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>OFI Creta</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20.08.2023 11:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Giannina</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Kifisias</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>18.08.2023 13:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Volos</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Lamia</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
